--- a/Templates-V2/Natural_Gas.xlsx
+++ b/Templates-V2/Natural_Gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope 2\Templates without to - from\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\OneDrive\Desktop\Scope2\Batch-input-Page-main\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A9D5C9-7547-4C59-9331-72CBFD5D0116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFC18C-740F-4CB5-AAC2-43E581355681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7E88295-D055-45B5-BA9A-F32DA4383C7A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
   <si>
     <t>Asset Name</t>
   </si>
@@ -519,9 +519,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>reason1</t>
-  </si>
-  <si>
     <t>The total cost associated with the asset for the reporting period</t>
   </si>
   <si>
@@ -538,6 +535,18 @@
   </si>
   <si>
     <t>The fiscal year for which the data is being reported, e.g., 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Stating Date</t>
+  </si>
+  <si>
+    <t>Ending date</t>
   </si>
 </sst>
 </file>
@@ -640,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -663,6 +672,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -671,7 +683,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -693,14 +705,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -746,18 +754,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}" name="Table1" displayName="Table1" ref="A1:I1048575" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:I1048575" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C4DA4C75-DAA1-4F9C-BEBA-0B7E962BD3A8}" name="Asset Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{C509CD92-117B-4A68-A79B-4535FFDDD608}" name="Reporting Year" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{4C57958B-2B05-465F-A4FA-70F719C2C846}" name="Value Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{FFB26904-7DCE-4DAC-9155-DDFFEFFFFD23}" name="Consumption" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{05F6CF10-AC38-4694-9E02-1073E92EE1E9}" name="Meter Read Units" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{3AC98B59-F4F8-4ACB-8F6A-EF778392D81C}" name="Total Spend" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8CFBA71B-8296-42D3-B5AF-86FE8FD123C1}" name="Currency" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{98D6E87F-8F45-4DD2-BBF4-D21D66881090}" name="Actual/Estimated" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{EEAB8153-968E-4C1A-BD98-B3844F17628B}" name="Assumption basis" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}" name="Table1" displayName="Table1" ref="A1:K1048574" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:K1048574" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{C4DA4C75-DAA1-4F9C-BEBA-0B7E962BD3A8}" name="Asset Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C509CD92-117B-4A68-A79B-4535FFDDD608}" name="Reporting Year" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4C57958B-2B05-465F-A4FA-70F719C2C846}" name="Value Type" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FFB26904-7DCE-4DAC-9155-DDFFEFFFFD23}" name="Consumption" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{05F6CF10-AC38-4694-9E02-1073E92EE1E9}" name="Meter Read Units" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3AC98B59-F4F8-4ACB-8F6A-EF778392D81C}" name="Total Spend" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8CFBA71B-8296-42D3-B5AF-86FE8FD123C1}" name="Currency" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{98D6E87F-8F45-4DD2-BBF4-D21D66881090}" name="Actual/Estimated" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{EEAB8153-968E-4C1A-BD98-B3844F17628B}" name="Assumption basis" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{0C6C807D-0A50-420B-867E-F84284682765}" name="From " dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{F1A342F5-0584-41CD-9705-88408D9B9B69}" name="To" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1081,27 +1091,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86D2EA3-8246-4A37-9F1B-DA4D68191516}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="12" style="9" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="16.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,28 +1141,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="F2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>13</v>
@@ -1158,8 +1176,14 @@
       <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="J2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1183,70 +1207,43 @@
       <c r="I3" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>500</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="J3" s="11">
+        <v>45262</v>
+      </c>
+      <c r="K3" s="11">
+        <v>45290</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="s1wKquijQ+OWy8gfQnEZBvRTPcvl7D9QVvMBLrUlYL4GcCShuTqXTYQ0LDTG+lRqQu8yCfMOTmIJem0CIvbHPA==" saltValue="E44vn+j+leFssxgyGXgkZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="D3:D1048575">
-    <cfRule type="expression" dxfId="2" priority="5">
+  <sheetProtection algorithmName="SHA-512" hashValue="3Y6u0DF+8KGB2I7GHcJ+mhKonrKGiT/ZdKFOrvIG8nOjvpl7W/8QpIE52muwTXOZyDPK4X15jHibzv3LdvTg1g==" saltValue="i77VXjSz2ocQxFqjpZQ+zA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="D3:E1048574">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$C3 &lt;&gt; "Consumption"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E1048575">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C3 &lt;&gt; "Consumption"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:G1048575">
+  <conditionalFormatting sqref="F3:G1048574">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$C3 &lt;&gt; "Total Spend"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1048576" xr:uid="{7BC40E83-1697-4921-8FCA-1E035EC5204E}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1048575:B1048576" xr:uid="{7BC40E83-1697-4921-8FCA-1E035EC5204E}">
       <formula1>2020</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048575" xr:uid="{81140E3F-D2E4-4764-BF9F-AD92DB5B155B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048574" xr:uid="{F426AF3A-706B-46C4-80F8-3D22BFDD037A}">
+      <formula1>"Consumption, Total Spend"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1048574 B3:B4" xr:uid="{60A5BA45-F4FE-4528-90E3-4B86073EA9BF}">
+      <formula1>2020</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048574" xr:uid="{81140E3F-D2E4-4764-BF9F-AD92DB5B155B}">
       <formula1>"estimated, actual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048575" xr:uid="{F426AF3A-706B-46C4-80F8-3D22BFDD037A}">
-      <formula1>"Consumption, Total Spend"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048575" xr:uid="{6292CE83-0999-4D51-87A4-D131795BF81D}">
+    <dataValidation type="custom" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048574" xr:uid="{6292CE83-0999-4D51-87A4-D131795BF81D}">
       <formula1>$C3 = "Consumption"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048575" xr:uid="{FE240690-3E47-4ED7-A49B-0494E04F5B1B}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048574" xr:uid="{FE240690-3E47-4ED7-A49B-0494E04F5B1B}">
       <formula1>$C3 = "Total Spend"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B1048575 B3:B5" xr:uid="{60A5BA45-F4FE-4528-90E3-4B86073EA9BF}">
-      <formula1>2020</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1261,13 +1258,13 @@
           <x14:formula1>
             <xm:f>data!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E1048575</xm:sqref>
+          <xm:sqref>E3:E1048574</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D197E6D-8480-49D4-9033-19332FCB95C8}">
           <x14:formula1>
             <xm:f>data!$A$2:$A$182</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G1048575</xm:sqref>
+          <xm:sqref>G3:G1048574</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Templates-V2/Natural_Gas.xlsx
+++ b/Templates-V2/Natural_Gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmo\OneDrive\Desktop\Scope2\Batch-input-Page-main\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope-2\Templates-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFC18C-740F-4CB5-AAC2-43E581355681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C4BB5-A4D6-4476-8447-09E3D5958C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7E88295-D055-45B5-BA9A-F32DA4383C7A}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,6 +2222,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -2377,15 +2386,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9930968D-91AA-4B72-8404-6CA94EE43C90}">
   <ds:schemaRefs>
@@ -2403,6 +2403,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F33D6C-5B32-4B2E-8416-EFC149215A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B157268-EBCC-4193-831C-590245EC7ED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2418,12 +2426,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F33D6C-5B32-4B2E-8416-EFC149215A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Templates-V2/Natural_Gas.xlsx
+++ b/Templates-V2/Natural_Gas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LevelupESG\Scope-2\Templates-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C4BB5-A4D6-4476-8447-09E3D5958C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4104E3-911B-4FF2-96D0-ED6F923CF0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B7E88295-D055-45B5-BA9A-F32DA4383C7A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
   <si>
     <t>Asset Name</t>
   </si>
@@ -78,9 +78,6 @@
     <t>DZD</t>
   </si>
   <si>
-    <t>estimated</t>
-  </si>
-  <si>
     <t>Currency from</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
     <t>actual</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>The total cost associated with the asset for the reporting period</t>
   </si>
   <si>
@@ -547,6 +541,9 @@
   </si>
   <si>
     <t>Ending date</t>
+  </si>
+  <si>
+    <t>Indicates whether the reported data is an actual measurement or an estimate.</t>
   </si>
 </sst>
 </file>
@@ -683,7 +680,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -754,20 +758,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}" name="Table1" displayName="Table1" ref="A1:K1048574" totalsRowShown="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}" name="Table1" displayName="Table1" ref="A1:K1048574" totalsRowShown="0" dataDxfId="14">
   <autoFilter ref="A1:K1048574" xr:uid="{465942A6-F862-4C49-99D3-92C95F51EB95}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C4DA4C75-DAA1-4F9C-BEBA-0B7E962BD3A8}" name="Asset Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{C509CD92-117B-4A68-A79B-4535FFDDD608}" name="Reporting Year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{4C57958B-2B05-465F-A4FA-70F719C2C846}" name="Value Type" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FFB26904-7DCE-4DAC-9155-DDFFEFFFFD23}" name="Consumption" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{05F6CF10-AC38-4694-9E02-1073E92EE1E9}" name="Meter Read Units" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{3AC98B59-F4F8-4ACB-8F6A-EF778392D81C}" name="Total Spend" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8CFBA71B-8296-42D3-B5AF-86FE8FD123C1}" name="Currency" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{98D6E87F-8F45-4DD2-BBF4-D21D66881090}" name="Actual/Estimated" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{EEAB8153-968E-4C1A-BD98-B3844F17628B}" name="Assumption basis" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{0C6C807D-0A50-420B-867E-F84284682765}" name="From " dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{F1A342F5-0584-41CD-9705-88408D9B9B69}" name="To" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4DA4C75-DAA1-4F9C-BEBA-0B7E962BD3A8}" name="Asset Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C509CD92-117B-4A68-A79B-4535FFDDD608}" name="Reporting Year" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{4C57958B-2B05-465F-A4FA-70F719C2C846}" name="Value Type" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FFB26904-7DCE-4DAC-9155-DDFFEFFFFD23}" name="Consumption" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{05F6CF10-AC38-4694-9E02-1073E92EE1E9}" name="Meter Read Units" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{3AC98B59-F4F8-4ACB-8F6A-EF778392D81C}" name="Total Spend" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{8CFBA71B-8296-42D3-B5AF-86FE8FD123C1}" name="Currency" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{98D6E87F-8F45-4DD2-BBF4-D21D66881090}" name="Actual/Estimated" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{EEAB8153-968E-4C1A-BD98-B3844F17628B}" name="Assumption basis" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{0C6C807D-0A50-420B-867E-F84284682765}" name="From " dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{F1A342F5-0584-41CD-9705-88408D9B9B69}" name="To" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1094,7 +1098,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1153,34 +1157,34 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -1197,16 +1201,14 @@
         <v>35135</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>159</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="I3" s="7"/>
       <c r="J3" s="11">
         <v>45262</v>
       </c>
@@ -1215,15 +1217,20 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3Y6u0DF+8KGB2I7GHcJ+mhKonrKGiT/ZdKFOrvIG8nOjvpl7W/8QpIE52muwTXOZyDPK4X15jHibzv3LdvTg1g==" saltValue="i77VXjSz2ocQxFqjpZQ+zA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v9BFSN2qJIoRVnd5kPKzNzcMVh3MwEty8tBWS5Vk2blqXeyn/hUxo8TWw/GJ7saOoAXMdine3XgiH/4yWa5R5A==" saltValue="jTgRWmbkUFsa6VmDrkD42w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D3:E1048574">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$C3 &lt;&gt; "Consumption"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G1048574">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$C3 &lt;&gt; "Total Spend"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H1 = "actual"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -1285,23 +1292,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
@@ -1312,900 +1319,900 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2214,23 +2221,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100316A6B2706F22F479EB96B4E836A2AA9" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb14f50e3c0e0698014ac1b2b11cfd92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="952decf2-c70e-41dd-b7af-a901e5274ebc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e289b93c4a0db376190258ac9ef1386" ns3:_="">
     <xsd:import namespace="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
@@ -2386,31 +2376,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9930968D-91AA-4B72-8404-6CA94EE43C90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F33D6C-5B32-4B2E-8416-EFC149215A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="952decf2-c70e-41dd-b7af-a901e5274ebc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B157268-EBCC-4193-831C-590245EC7ED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2426,4 +2409,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F33D6C-5B32-4B2E-8416-EFC149215A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9930968D-91AA-4B72-8404-6CA94EE43C90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="952decf2-c70e-41dd-b7af-a901e5274ebc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>